--- a/public/file/templates-excel-siswa-create.xlsx
+++ b/public/file/templates-excel-siswa-create.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\s11prakerin\public\assets\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\prakerinkuy\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A01F1F-76B9-406E-A65A-E94AC8A92CCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF605421-118A-43C2-8FB2-757845A56BEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="1245" windowWidth="15375" windowHeight="8325" xr2:uid="{26912D0B-2370-4161-B7B9-9C4120A999EC}"/>
+    <workbookView xWindow="5115" yWindow="3495" windowWidth="19110" windowHeight="8325" xr2:uid="{CC6FEB80-1A0B-4220-99DD-FD3734FE5EE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>nis</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>NIS</t>
   </si>
   <si>
     <t>Nama Siswa</t>
   </si>
   <si>
     <t>Kelas</t>
+  </si>
+  <si>
+    <t>Email Siswa</t>
   </si>
   <si>
     <t>Jenis Kelamin</t>
@@ -61,6 +64,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -399,22 +403,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B732F8-0ED1-4241-BAF7-BCFFFBFC7F52}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36C2991-B02D-4889-B9FC-B826713EE742}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,6 +436,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
